--- a/Running projects/Meezan Bank Head Office/003 Quotation for Valves.xlsx
+++ b/Running projects/Meezan Bank Head Office/003 Quotation for Valves.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2F0D1F-CE4F-4E34-A7DF-76D0C73C588F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F021168-2DF2-4E3D-876D-8235665C9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">HVAC!$A$1:$F$42</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$22:$22</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">HVAC!$20:$20</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>S. #</t>
   </si>
@@ -54,9 +54,6 @@
     <t>003</t>
   </si>
   <si>
-    <t xml:space="preserve">Removal / dismantle of G.I sheet metal cladding, insulation and existing chilled water system butterfly valves. Supply and installation of new butterfly valve (Gear operated) 08" Dia with nut bolts and reintallation of insulation / GI sheet metal cladding. </t>
-  </si>
-  <si>
     <t>Removal / dismantle of existing cooling water system butterfly valves. Supply and installation of new butterfly valve (Gear operated) with nut bolts.</t>
   </si>
   <si>
@@ -94,6 +91,12 @@
   </si>
   <si>
     <t>28 Oct 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removal / dismantle of G.I sheet metal cladding, insulation and existing chilled water system butterfly valves. Supply &amp; installation of new butterfly valve (Gear operated) 08" Dia with nut bolts &amp; reintallation of insulation / GI sheet metal cladding. </t>
+  </si>
+  <si>
+    <t>Removal of existing pressure point M.S Socket reinstallation of new MS socket and fix stop cock / syphon and OFM pressure guage.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -358,9 +361,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -443,13 +443,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>293687</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>358774</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -542,58 +542,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>558802</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>446427</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="9337677" y="1397001"/>
-          <a:ext cx="856000" cy="674687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -621,7 +569,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -671,7 +619,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -698,14 +646,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>30938</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>694379</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>191311</xdr:rowOff>
+      <xdr:rowOff>32561</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -721,7 +669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -874,7 +822,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -1191,17 +1139,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="120" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="5.42578125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1217,80 +1165,90 @@
   <sheetData>
     <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+    <row r="6" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="34"/>
-    </row>
-    <row r="8" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="25" t="s">
+      <c r="B6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="F7" s="30" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B9"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="23" t="s">
+      <c r="F8" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="36"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-    </row>
-    <row r="16" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:6" ht="0.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+    </row>
+    <row r="15" spans="1:6" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -1298,164 +1256,176 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
     </row>
-    <row r="17" spans="1:8" ht="6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+    </row>
+    <row r="18" spans="1:8" ht="1.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:8" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B20" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>1</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="27">
         <v>16</v>
       </c>
-      <c r="F22" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26"/>
-    </row>
-    <row r="24" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28">
-        <v>1</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="E22" s="29">
+        <v>75000</v>
+      </c>
+      <c r="F22" s="29">
+        <f>E22*D22</f>
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A23" s="27">
+        <v>2</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="27">
+        <v>8</v>
+      </c>
+      <c r="E24" s="29">
+        <v>62000</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" ref="F24:F25" si="0">E24*D24</f>
+        <v>496000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="27">
         <v>16</v>
       </c>
-      <c r="E24" s="30">
-        <v>75000</v>
-      </c>
-      <c r="F24" s="30">
-        <f>E24*D24</f>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.3">
-      <c r="A25" s="28">
-        <v>2</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="28">
-        <v>8</v>
-      </c>
-      <c r="E26" s="30">
-        <v>62000</v>
-      </c>
-      <c r="F26" s="30">
-        <f t="shared" ref="F26:F27" si="0">E26*D26</f>
-        <v>496000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="28">
-        <v>16</v>
-      </c>
-      <c r="E27" s="30">
+      <c r="E25" s="29">
         <v>42000</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F25" s="29">
         <f t="shared" si="0"/>
         <v>672000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="39" t="s">
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
+        <v>3</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="27">
+        <v>24</v>
+      </c>
+      <c r="E26" s="29">
+        <v>9000</v>
+      </c>
+      <c r="F26" s="29">
+        <f t="shared" ref="F26" si="1">E26*D26</f>
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="27">
-        <f>SUM(F24:F27)</f>
-        <v>2368000</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="26">
+        <f>SUM(F22:F26)</f>
+        <v>2584000</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1464,127 +1434,139 @@
       <c r="F29" s="9"/>
       <c r="H29" s="14"/>
     </row>
-    <row r="30" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="H30" s="14"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="25" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="24" t="s">
+      <c r="A31" s="23"/>
+      <c r="B31" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" ht="75" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
         <v>1</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="B32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="27">
+        <v>16</v>
+      </c>
+      <c r="E32" s="29">
+        <v>52000</v>
+      </c>
+      <c r="F32" s="29">
+        <f>E32*D32</f>
+        <v>832000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="27">
         <v>2</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="B33" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="27">
+        <v>8</v>
+      </c>
+      <c r="E34" s="29">
+        <v>48000</v>
+      </c>
+      <c r="F34" s="29">
+        <f t="shared" ref="F34:F36" si="2">E34*D34</f>
+        <v>384000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="27">
+        <v>16</v>
+      </c>
+      <c r="E35" s="29">
+        <v>36000</v>
+      </c>
+      <c r="F35" s="29">
+        <f t="shared" si="2"/>
+        <v>576000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="45" x14ac:dyDescent="0.3">
+      <c r="A36" s="27">
         <v>3</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="26"/>
-    </row>
-    <row r="33" spans="1:16" ht="75" x14ac:dyDescent="0.3">
-      <c r="A33" s="28">
-        <v>1</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="28" t="s">
+      <c r="B36" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="28">
-        <v>16</v>
-      </c>
-      <c r="E33" s="30">
-        <v>52000</v>
-      </c>
-      <c r="F33" s="30">
-        <f>E33*D33</f>
-        <v>832000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28">
-        <v>2</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="28">
-        <v>8</v>
-      </c>
-      <c r="E35" s="30">
-        <v>48000</v>
-      </c>
-      <c r="F35" s="30">
-        <f t="shared" ref="F35:F36" si="1">E35*D35</f>
-        <v>384000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="28">
-        <v>16</v>
-      </c>
-      <c r="E36" s="30">
-        <v>36000</v>
-      </c>
-      <c r="F36" s="30">
-        <f t="shared" si="1"/>
-        <v>576000</v>
+      <c r="D36" s="27">
+        <v>24</v>
+      </c>
+      <c r="E36" s="29">
+        <v>9000</v>
+      </c>
+      <c r="F36" s="29">
+        <f t="shared" si="2"/>
+        <v>216000</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="27">
-        <f>SUM(F33:F36)</f>
-        <v>1792000</v>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="26">
+        <f>SUM(F32:F36)</f>
+        <v>2008000</v>
       </c>
       <c r="G37" s="13"/>
     </row>
@@ -1598,10 +1580,10 @@
       <c r="H38" s="14"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="34"/>
       <c r="G39" s="15"/>
       <c r="H39" s="13"/>
       <c r="K39" s="2"/>
@@ -1631,20 +1613,17 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:F17"/>
+    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A37:E37"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="42" max="7" man="1"/>
-  </rowBreaks>
+  <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>